--- a/Data_update/config_path/data_update_path_config.xlsx
+++ b/Data_update/config_path/data_update_path_config.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_new_SQL_wind\Data_update\config_path\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E775FFB1-32E7-4275-B9B7-888DB3D51427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sub_folder" sheetId="2" r:id="rId1"/>
@@ -333,9 +339,6 @@
     <t>MPON</t>
   </si>
   <si>
-    <t>D:\OneDrive\Data_Original</t>
-  </si>
-  <si>
     <t>Data_prepared_wind</t>
   </si>
   <si>
@@ -349,19 +352,16 @@
   </si>
   <si>
     <t>OneDrive</t>
+  </si>
+  <si>
+    <t>Data_Original_wind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +373,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -380,6 +381,7 @@
       <sz val="11"/>
       <color theme="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -387,359 +389,47 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -747,256 +437,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1010,62 +457,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1323,11 +726,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G47"/>
   <sheetViews>
@@ -1335,54 +739,54 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.0833333333333" style="5" customWidth="1"/>
-    <col min="2" max="2" width="49.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="17.3333333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="49.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:7">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D4"/>
@@ -1390,14 +794,14 @@
       <c r="F4"/>
       <c r="G4"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:7">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D5"/>
@@ -1405,36 +809,36 @@
       <c r="F5"/>
       <c r="G5"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:3">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:7">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" s="1" customFormat="1">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D8"/>
@@ -1442,180 +846,180 @@
       <c r="F8"/>
       <c r="G8"/>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:7">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:7" s="2" customFormat="1">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="C18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:7">
-      <c r="A22" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1">
+      <c r="A22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D22"/>
@@ -1623,25 +1027,25 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:7">
-      <c r="A24" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1">
+      <c r="A24" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D24"/>
@@ -1649,14 +1053,14 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:7">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:7" s="1" customFormat="1">
+      <c r="A25" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D25"/>
@@ -1664,25 +1068,25 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:7">
-      <c r="A27" s="6" t="s">
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1">
+      <c r="A27" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>58</v>
       </c>
       <c r="D27"/>
@@ -1690,255 +1094,255 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
+      <c r="C30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="C32" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="C34" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5" t="s">
+      <c r="C36" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
+      <c r="C37" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
+      <c r="C38" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="C39" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5" t="s">
+      <c r="C40" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5" t="s">
+      <c r="C41" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5" t="s">
+      <c r="C42" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5" t="s">
+      <c r="C43" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="6" t="s">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:3">
-      <c r="A47" s="5" t="s">
+      <c r="C46" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="56.3333333333333" customWidth="1"/>
-    <col min="3" max="4" width="8.58333333333333"/>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="3" max="4" width="8.625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1959,11 +1363,11 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>100</v>
+      <c r="B2" t="s">
+        <v>105</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1973,8 +1377,8 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>101</v>
+      <c r="B3" t="s">
+        <v>100</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1988,13 +1392,13 @@
         <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2002,7 +1406,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2015,8 +1419,8 @@
       <c r="A6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>104</v>
+      <c r="B6" t="s">
+        <v>103</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2030,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2040,7 +1444,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>